--- a/biology/Histoire de la zoologie et de la botanique/Eric_Worrell/Eric_Worrell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eric_Worrell/Eric_Worrell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eric Worrell (1924 - 1987) est un zoologiste herpétologiste et écrivain australien qui fut un pionnier dans la production de sérum anti-venineux de serpent en Australie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric Worrell (1924 - 1987) est un zoologiste herpétologiste et écrivain australien qui fut un pionnier dans la production de sérum anti-venineux de serpent en Australie.
 Il est né à Sydney. Au cours de la Seconde Guerre mondiale, il a travaillé comme forgeron civil dans l'artillerie à Darwin en même temps qu'il faisait ses études et  collectionnait des reptiles.
 En 1948, Worrell a ouvert le Ocean Beach Aquarium à Umina Beach (en) sur la Central Coast en Nouvelle-Galles du Sud. C'est ici qu'il a commencé à fournir en venin de serpent les laboratoires de Sérum du Commonwealth (CSL) à Melbourne. En 1958, il a déménagé au Wyoming où il a créé le parc de reptiles d'Australie. Plus tard (1958) il s'est installé à Gosford.
 </t>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1953 - Dangerous Snakes of Australia and New Guinea. (Angus et Robertson)
 1958 - Song of the Snake. (Angus and Robertson)
@@ -554,7 +568,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Austrelaps Worrell, 1963
 Cryptophis Worrell, 1961
